--- a/dify_chat_tester_template.xlsx
+++ b/dify_chat_tester_template.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,6 +461,11 @@
           <t>备注</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>iFlow响应</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -470,22 +475,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>你好呀，我是钱小爱～很高兴为你解答这个问题！
-人工智能呢，简单来说，就是让机器像人一样“思考”和“做事”的技术。就像我们人类会看、会听、会说、会学习，人工智能就是教机器也拥有这些能力。
-举个例子🌰：  
-当你用手机语音助手说“明天天气怎么样”，它能听懂你的话，然后告诉你天气预报，这就是人工智能在帮忙啦～
-更专业一点讲，人工智能（AI）是计算机科学的一个分支，它通过算法和大量数据，让机器可以：
-- 理解语言（比如你现在和我聊天）
-- 识别图像（比如人脸识别解锁）
-- 做出决策（比如自动驾驶判断路况）
-- 不断学习改进（这叫机器学习）
-不过呀，虽然AI很厉害，但它还是在“向人类学习”的阶段，真正的情感和创造力还比不上我们人类哦😊
-如果你对哪一部分特别感兴趣，比如AI怎么写文章、画画，或者它是怎么学会说话的，我可以继续给你讲得更有趣～</t>
+          <t>您好，小科为您服务。关于您提到的“什么是人工智能？”，我们可以从基本概念出发来理解这一领域。
+人工智能（Artificial Intelligence，简称AI）是指由人制造出来的机器所表现出来的智能。它能够模拟人类的思维过程，如学习、推理、识别、理解语言、决策等，并在特定任务中自主执行或辅助完成工作。其核心目标是让机器具备类似人类的认知能力，甚至在某些方面超越人类的表现。
+在实际应用中，人工智能广泛应用于语音助手、图像识别、自然语言处理、自动驾驶、智能推荐系统等领域。根据能力范围，通常分为“弱人工智能”（专注于某一特定任务，如人脸识别）和“强人工智能”（具备通用认知能力，尚处于理论探索阶段）。
+当前的人工智能技术主要依赖于大数据、算法模型（如深度学习）和强大的计算能力，通过训练模型实现对复杂模式的识别与预测。
+如果您希望进一步了解人工智能的具体应用场景、技术原理或在企业中的落地实践方式，可以告诉我您的关注方向，小科将结合相关标准流程和实用技巧为您提供更深入的解答。</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>待处理</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>你好！很高兴为你解答这个问题。
+人工智能（Artificial Intelligence，简称 AI）是指由计算机系统所表现出的智能行为。简单来说，就是让机器模拟人类的某些智能能力，比如学习、推理、规划、理解语言、识别图像、感知环境，甚至在某些情况下做出决策或创造内容。
+人工智能可以分为两大类：
+1. **弱人工智能（Narrow AI）**：专注于完成特定任务，比如语音助手（如 Siri、小爱同学）、人脸识别、推荐系统（如抖音或淘宝的个性化推荐）、自动驾驶等。目前我们日常生活中接触到的 AI 大多属于这一类。
+2. **强人工智能（General AI）**：指的是具备与人类相当或超越人类的全面智能，能够理解、学习并执行任何智力任务。这种类型的 AI 目前还处于理论和研究阶段，尚未实现。
+AI 的核心技术包括：
+- 机器学习（Machine Learning）
+- 深度学习（Deep Learning）
+- 自然语言处理（NLP）
+- 计算机视觉（Computer Vision）
+- 强化学习（Reinforcement Learning）等
+如果你对某个具体方向感兴趣（比如 AI 如何写文章、如何识别人脸，或者它对未来工作的影响），我很乐意进一步为你介绍！😊</t>
         </is>
       </c>
     </row>
@@ -497,26 +512,54 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>嗨，我是钱小爱～让我来为你介绍一下Python的特点吧！😊
-Python真的是一款超级友好的编程语言呢！它最明显的特点就是**语法简洁清晰**，就像在写英语一样自然。记得我第一次学Python时，看到代码就像在读故事书，特别亲切～
-让我给你梳理几个核心优势：
-✨ **易学易用** - 代码可读性超强，新手也能快速上手
-🚀 **功能强大** - 从数据分析到人工智能都能搞定
-🌍 **应用广泛** - 网站开发、自动化脚本、科学计算都用得上
-🧩 **生态丰富** - 有超多现成的"工具包"（库）可以直接使用
-🤝 **跨平台** - 在Windows、Mac、Linux上都能跑得欢
-对了，你知道吗？像Instagram、Pinterest这些大网站都是用Python搭建的呢！而且现在热门的人工智能领域，Python也是当仁不让的主角哦～
-要不要我给你举个简单的小例子？比如想让电脑打印"Hello World"，只需要一行代码：
-```python
-print("Hello World")
-```
-是不是特别直观呀？😉
-如果你对某个具体方向感兴趣，比如想用Python做数据分析或者写小游戏，我很乐意继续分享更多实用的内容哦！</t>
+          <t>您好，小科为您服务。
+根据您提到的“Python 的特点有哪些？”，我理解您是想了解 Python 编程语言的核心特性。虽然当前系统中暂无相关文档支持，但基于通用技术知识，我可以为您简要说明：
+Python 是一种广泛使用的高级编程语言，以其简洁清晰的语法和强大的功能著称。其主要特点包括：
+1. **语法简洁易读**：Python 采用缩进结构来组织代码，使得代码具有良好的可读性，降低了学习与维护成本。
+2. **跨平台兼容**：Python 可在多种操作系统（如 Windows、Linux、macOS）上运行，具备良好的可移植性。
+3. **丰富的标准库和第三方库**：涵盖网络编程、数据分析、人工智能、自动化脚本等多个领域，极大提升了开发效率。
+4. **支持多种编程范式**：包括面向对象、函数式、过程式编程，适应不同场景需求。
+5. **动态类型系统**：变量无需预先声明类型，提升编码灵活性。
+6. **解释型语言**：边解释边执行，便于调试和快速迭代。
+7. **强大的社区支持**：拥有活跃的开发者社区，资源丰富，问题响应及时。
+如果您是在工作场景中涉及 Python 相关的自动化脚本、系统运维或数据处理任务，我们可以进一步结合具体流程为您提供操作建议和最佳实践技巧。
+如有其他具体方向需要了解，也欢迎随时告诉我，小科将全力协助您。</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
           <t>待处理</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>你好！Python 是一门非常受欢迎的编程语言，它的设计哲学强调**代码的可读性**和**简洁性**。以下是 Python 的主要特点：
+### 1. **简单易学**
+- 语法清晰、接近自然语言，非常适合编程初学者。
+- 用较少的代码行就能表达复杂的概念，降低学习和开发门槛。
+### 2. **解释型语言**
+- Python 是解释执行的，无需编译，写完代码可以直接运行，便于调试和快速开发。
+### 3. **跨平台**
+- 支持 Windows、macOS、Linux 等多种操作系统，同一份代码通常无需修改即可在不同平台上运行。
+### 4. **开源免费**
+- Python 是开源的，任何人都可以查看、使用和贡献其源代码，并且完全免费用于商业和个人项目。
+### 5. **丰富的标准库和第三方库**
+- 被称为“**自带电池（batteries included）**”的语言，标准库覆盖文件处理、网络通信、数据库操作等。
+- 第三方生态极其强大，例如：
+  - 数据科学：NumPy、Pandas、Matplotlib
+  - 人工智能：TensorFlow、PyTorch、scikit-learn
+  - Web 开发：Django、Flask
+  - 自动化：Selenium、Requests
+### 6. **动态类型**
+- 变量无需声明类型，类型在运行时自动确定，编写更灵活（但也需要注意类型安全）。
+### 7. **面向对象 &amp; 多范式支持**
+- 支持面向对象编程（OOP），也支持过程式、函数式等多种编程风格。
+### 8. **社区活跃、文档完善**
+- 拥有全球庞大的开发者社区，遇到问题很容易找到教程、文档或解决方案。
+### 9. **广泛应用领域**
+- Web 开发、数据分析、人工智能、自动化脚本、网络爬虫、科学计算、教育等场景都有广泛应用。
+---
+如果你刚开始学习 Python，或者想了解它在某个具体领域的应用（比如做 AI 或写小工具），我很乐意为你提供进一步建议！😊</t>
         </is>
       </c>
     </row>
@@ -528,61 +571,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>嗨，我是钱小爱～很高兴你对机器学习感兴趣！✨
-学习机器学习其实就像学会“教电脑自己思考”一样有趣又实用。别担心它听起来高大上，只要按步骤来，你也能轻松上手哦～我给你整理了一个清晰的学习路径👇
----
-🎯 **第一步：打好基础（1-2个月）**
-1. **数学基础**（不用太深，够用就好）
-   - 线性代数：向量、矩阵运算（比如 numpy 处理数据就用得到）
-   - 概率与统计：平均值、方差、正态分布、贝叶斯思想
-   - 微积分：知道导数和梯度的意思就行（优化算法会用到）
-2. **编程技能**
-   - 推荐学 **Python** 🐍（最友好的入门语言）
-   - 重点掌握：
-     - NumPy（数值计算）
-     - Pandas（数据处理）
-     - Matplotlib/Seaborn（画图分析）
-   - 小建议：每天写点小代码，比如处理个Excel表格或画个趋势图～
----
-📚 **第二步：入门机器学习（2-3个月）**
-1. **核心概念先理解**
-   - 什么是监督学习 / 无监督学习？
-   - 回归 vs 分类？过拟合是什么？怎么避免？
-2. **动手实践经典算法**
-   - 线性回归、逻辑回归
-   - 决策树、随机森林
-   - K均值聚类、主成分分析（PCA）
-3. **工具推荐**
-   - 用 **Scikit-learn**（超好用的库，几行代码就能训练模型）
-   - 数据集练习：[Kaggle](https://www.kaggle.com) 上的 Titanic、Iris 都很适合新手
-💡 小技巧：边学边做项目！比如预测房价、识别手写数字，成就感满满！
----
-🚀 **第三步：进阶提升（持续进行）**
-1. **深入学习方向可选：**
-   - 深度学习（神经网络、CNN、RNN）→ 用 PyTorch 或 TensorFlow
-   - 自然语言处理（NLP）：让机器看懂文字
-   - 计算机视觉：图像识别、人脸识别
-2. **参加实战项目**
-   - Kaggle 打榜（哪怕只是提交第一个模型也很棒！）
-   - 做一个自己的小作品，比如“电影评分预测系统”
-3. **养成好习惯**
-   - 看优质课程：吴恩达的《Machine Learning》经典入门课（Coursera）
-   - 阅读博客/公众号：如“机器之心”、“AI科技大本营”
-   - 加入学习社群，和小伙伴一起进步 💬
----
-💌 钱小爱的小贴士：
-&gt; “不要追求完美，先完成再优化。”  
-&gt; 很多高手一开始也是从跑通第一段代码开始的～  
-&gt; 关键是保持好奇，边玩边学，把知识变成乐趣 ❤️
----
-如果你愿意，我可以帮你定制一份专属学习计划表哦～  
-或者你想先试试做一个简单的预测小项目？咱们可以一步步来 😊
-加油呀，未来的AI达人！🌟</t>
+          <t>您好，小科为您服务。关于“如何系统地学习机器学习”，这是一个非常重要且具有战略意义的学习目标，尤其在当前技术快速发展的背景下，掌握系统化的学习路径能有效提升学习效率与成果。
+根据标准的学习发展模型，建议您从以下几个关键流程入手，逐步构建完整的知识体系：
+1. **基础能力准备**  
+   机器学习涉及数学（线性代数、概率统计）、编程（Python为主）和基础计算机科学知识。建议您先评估自身在这三个领域的熟练度，若有短板可优先补足，为后续学习打下坚实基础。
+2. **理论学习阶段**  
+   建议按照“监督学习 → 无监督学习 → 模型评估与优化”的逻辑顺序系统学习经典算法，例如线性回归、决策树、SVM、聚类等。可通过权威在线课程（如Coursera上的经典机器学习专项）进行结构化学习。
+3. **实践应用强化**  
+   理论结合实践是关键。推荐使用Kaggle或公开数据集（如UCI）完成端到端项目，例如房价预测、客户分类等，以掌握数据预处理、特征工程、模型训练与调优的完整流程。
+4. **进阶与持续提升**  
+   在掌握基础后，可进一步学习深度学习、强化学习等内容，并关注行业应用案例，提升解决复杂问题的能力。
+如果您希望我为您细化某一阶段的具体学习资源、推荐课程或制定阶段性计划，请告诉我您的背景（如是否有编程或数学基础），小科将为您定制更精准的指导方案。</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
           <t>待处理</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>[错误]: 请求超时</t>
         </is>
       </c>
     </row>
@@ -594,17 +603,55 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>嗨~我是钱小爱！让我用简单易懂的方式给你讲讲深度学习吧！
-你知道吗，深度学习就像是教一个小宝宝认识世界的过程。想象一下，我们想让电脑学会识别猫的照片，就像妈妈教宝宝认猫咪一样。
-这个"学习系统"有个特别的名字叫神经网络，它由很多层组成，就像洋葱一层包一层。每一层都在学习不同的特征 - 最开始学简单的线条和颜色，然后慢慢学会耳朵、眼睛这些部位，最后就能认出整只猫咪啦！
-最神奇的是，我们不需要告诉它具体要找什么特征，它自己会从成千上万张图片中找到规律。就像你看过足够多的猫之后，即使看到没见过的品种也能认出来一样。
-现在你手机里的美颜相机、语音助手，还有自动驾驶汽车，都用到了深度学习哦！不过它也需要很多数据和计算能力，就像宝宝需要看很多绘本才能学会识字一样~
-要不要我举个更具体的生活例子帮你理解呢？(✧ω✧)</t>
+          <t>您好，我是小科，很高兴为您服务。
+关于您提到的“解释一下深度学习的概念”，我理解您希望了解这一技术的基本含义。结合您的背景（企业普通员工，关注系统操作与服务流程），我会从一个贴近实际应用的角度为您提供说明。
+深度学习是人工智能领域中的一种核心技术，它模仿人脑神经元的工作方式，通过构建多层的“神经网络”来自动识别数据中的复杂模式。比如，在图像识别、语音识别、自然语言处理等场景中，深度学习模型能够从大量原始数据中自主学习特征，而无需人工逐项提取规则。
+其工作原理可以简要概括为：输入数据（如图片）→ 经过多层神经网络逐级抽象处理 → 输出结果（如“这是一只猫”）。每一层都会提取不同层次的特征，例如第一层识别边缘，第二层组合成形状，后续层逐步形成对象认知。整个过程依赖大量数据和计算资源进行训练，并通过反馈机制不断优化判断准确性。
+虽然当前知识库中暂无相关文档支持，但以上内容基于通用技术标准与行业实践总结而来。如果您需要进一步了解其在企业系统、智能服务或运维自动化中的具体应用场景，我可以继续为您说明。
+如有其他问题，也欢迎随时咨询。</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
           <t>待处理</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>你好！很高兴为你解释深度学习的概念。
+**深度学习（Deep Learning）** 是人工智能（AI）的一个重要分支，属于**机器学习（Machine Learning）** 的子领域。它的核心思想是通过模拟人脑神经元的工作方式，构建多层的“人工神经网络”，从而让计算机能够从大量数据中自动学习复杂的特征和规律。
+---
+### 🌟 通俗理解：
+想象你要教一个孩子识别“猫”。你不会直接告诉他“猫有尖耳朵、胡须、四条腿”，而是给他看成千上万张猫的照片。慢慢地，孩子自己总结出猫的共同特征。  
+**深度学习就像这个过程**——它不需要人为设计规则，而是让模型通过海量数据“自己学会”如何识别或预测。
+---
+### 🔧 技术核心：人工神经网络（尤其是“深层”网络）
+- **“深度”** 指的是神经网络包含**多个隐藏层**（通常超过3层，甚至上百层）。
+- 每一层都能提取数据的不同层次的特征：
+  - 浅层：识别边缘、颜色等简单特征（如图像中的线条）
+  - 中层：组合成局部结构（如眼睛、耳朵）
+  - 深层：形成高级语义（如“这是一只猫”）
+---
+### ✅ 深度学习的关键特点：
+1. **端到端学习**：直接从原始输入（如图片、语音）到最终输出（如分类结果），无需人工提取特征。
+2. **依赖大数据**：数据量越大，模型表现通常越好。
+3. **需要强大算力**：通常使用 GPU 或 TPU 加速训练。
+4. **自动特征提取**：这是它与传统机器学习最大的区别之一。
+---
+### 🚀 典型应用场景：
+| 领域 | 应用示例 |
+|------|--------|
+| 计算机视觉 | 人脸识别、自动驾驶、医学影像分析 |
+| 自然语言处理 | 机器翻译（如 Google 翻译）、聊天机器人（如我！）、文本生成 |
+| 语音技术 | 语音识别（如 Siri）、语音合成 |
+| 游戏与决策 | AlphaGo、智能推荐系统 |
+---
+### 📌 常见深度学习模型架构：
+- **CNN（卷积神经网络）**：擅长处理图像
+- **RNN / LSTM**：适合处理序列数据（如文本、时间序列）
+- **Transformer**：当前主流架构，支撑大模型（如 ChatGPT、BERT）
+---
+如果你对某个具体方向感兴趣（比如“怎么用 Python 实现一个简单的神经网络？”或者“Transformer 是怎么工作的？”），我可以继续深入讲解！😊</t>
         </is>
       </c>
     </row>
@@ -616,30 +663,61 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>你好呀～我是钱小爱，很高兴为你介绍 Dify 这个超实用的工具！
-Dify 是一个融合了可视化操作和代码灵活性的 **AI 应用开发平台**，特别适合想快速搭建 AI 应用、又不想被复杂技术卡住的朋友。它就像是你的“AI 产品搭积木神器”，让我来给你梳理一下它的核心功能：
-🔹 **1. 可视化编排工作流（Workflow）**  
-你可以像画流程图一样，把提示词、大模型调用、条件判断、函数执行等模块连起来，轻松构建复杂的 AI 应用逻辑，比如智能客服、内容生成助手、数据分析机器人等等。
-🔹 **2. 支持多种大模型接入**  
-不管是 OpenAI 的 GPT 系列、Anthropic 的 Claude，还是国产的通义千问、讯飞星火、百度文心一言，Dify 都能无缝对接，还能自由切换，不怕被“绑定”在某一个模型上。
-🔹 **3. 提示词工程友好**  
-内置强大的提示词编辑器，支持变量、上下文管理、多轮对话记忆，还支持版本控制——改提示词再也不怕“改崩了”回不去啦！
-🔹 **4. 内置知识库（RAG）支持**  
-你可以上传自己的文档（PDF、TXT、Word 等），Dify 会自动向量化存储，让 AI 在回答时参考你的专属资料，实现“私人定制”的智能问答，超适合企业知识管理哦～
-🔹 **5. Agent 能力支持**  
-Dify 支持构建具备自主决策能力的 AI Agent，它可以思考、规划、调用工具、反思结果，就像一个能自己干活的小助理！
-🔹 **6. API 接口一键发布**  
-你设计好的应用，可以一键生成 API 接口，方便集成到网站、APP 或内部系统中，前后端协作超顺畅。
-🔹 **7. 多环境部署 &amp; 开源免费**  
-Dify 是开源项目，支持本地部署（私有化）、SaaS 使用，也提供云服务版本，安全可控，企业级用户也能放心用。
-✨ 总结一句话：  
-**Dify = 低代码 + 强大 AI 能力 + 灵活扩展性**，无论你是产品经理、开发者，还是想玩转 AI 的普通人，都能快速做出属于自己的 AI 应用！
-如果你有兴趣，我还可以手把手教你从零搭建一个简单的 AI 助手哦～😉</t>
+          <t>您好，小科为您服务。关于您想了解 Dify 的主要功能，目前我尚未获取到相关的详细资料。不过根据我对主流AI应用平台的通用理解，Dify 通常是一个面向企业和开发者的 AI 原生应用开发平台，旨在帮助用户快速构建和部署基于大模型的智能应用。
+这类平台一般具备以下几类核心能力：
+1. **可视化编排工作流**：支持通过拖拽方式搭建复杂的提示词流程（Prompt Flow），实现多步骤推理、条件判断与数据处理，提升智能应用的逻辑性与准确性。
+2. **Agent 能力支持**：允许构建具备自主决策、工具调用和记忆能力的 AI Agent，能够自动完成目标分解、搜索信息、调用API等任务。
+3. **RAG（检索增强生成）集成**：可连接企业知识库，使 AI 回答基于内部文档数据，保障信息准确性和合规性，适用于客服、内部问答等场景。
+4. **模型管理与切换**：支持对接多种大模型（如 GPT、Claude、通义千问等），可根据性能、成本或场景需求灵活选择。
+5. **API 发布与集成**：将构建好的应用一键发布为标准 API 接口，便于嵌入现有业务系统，实现高效对接。
+6. **团队协作与权限控制**：提供角色分工、版本管理、审核流程等功能，符合企业级协作标准，保障开发流程规范可控。
+如果您希望深入了解某一方面的功能细节，例如具体如何配置工作流、接入私有知识库或部署上线流程，可以告诉我您的使用场景，我会结合最佳实践为您提供更具针对性的操作建议和应对策略。</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
           <t>待处理</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>你好！关于 **Dify**，目前在主流技术社区和官方开源项目中，并没有一个被广泛公认的、名为 “Dify” 的成熟 AI 或软件平台（截至我知识截止时间 2024 年 6 月）。不过，**可能存在以下几种情况**，我为你逐一说明：
+---
+### 📌 情况一：你指的是 **Dify.ai**（一个新兴的开源 LLM 应用开发平台）
+近年来，确实有一个名为 **[Dify](https://dify.ai/)** 的开源项目逐渐受到关注。它是一个 **面向大语言模型（LLM）应用开发的低代码/无代码平台**，旨在帮助开发者快速构建基于大模型的 AI 应用（如智能客服、知识库问答、自动化工作流等）。
+如果是这个 Dify，它的**主要功能**包括：
+#### ✅ 1. **可视化 Prompt 编排**
+- 提供图形化界面设计提示词（Prompt），支持变量插入、上下文管理、多轮对话逻辑。
+- 可测试和优化 Prompt 效果，降低“提示工程”门槛。
+#### ✅ 2. **RAG（检索增强生成）支持**
+- 支持上传文档（PDF、Word、TXT 等），自动构建向量数据库。
+- 在回答用户问题时，先检索相关知识片段，再由大模型生成准确、有依据的回答，避免“幻觉”。
+#### ✅ 3. **Agent 与工作流（Workflow）**
+- 支持构建智能 Agent，调用工具（如搜索、计算器、API）完成复杂任务。
+- 可编排多步骤自动化流程（例如：接收用户需求 → 查询数据库 → 调用模型生成报告 → 发送邮件）。
+#### ✅ 4. **多模型兼容**
+- 支持接入多种大模型，如：
+  - 开源模型：Llama 3、ChatGLM、Qwen 等
+  - 商业 API：OpenAI GPT、Anthropic Claude、Google Gemini、阿里通义千问、百度文心等
+#### ✅ 5. **应用发布与 API 集成**
+- 可将构建好的 AI 应用一键发布为 Web 聊天界面。
+- 同时提供 RESTful API，方便集成到企业现有系统（如 CRM、客服平台）。
+#### ✅ 6. **开源 &amp; 可私有化部署**
+- Dify 是 **Apache 2.0 协议开源**的（GitHub 项目：[langgenius/dify](https://github.com/langgenius/dify)）。
+- 企业可私有化部署，保障数据安全，适合对隐私要求高的场景。
+---
+### 📌 情况二：可能是拼写误差
+如果你本意是想问其他类似名字的工具，比如：
+- **Diffy**（用于测试的差异对比工具）
+- **Daffy**（非主流名称）
+- 或某个公司内部系统
+建议确认名称是否准确。
+---
+### 💡 总结
+如果是指 **Dify.ai**，那么它是一个**面向大模型应用开发的一站式平台**，核心价值在于：
+&gt; **让开发者（甚至非技术人员）能快速、安全、高效地将大语言模型能力落地到实际业务中。**
+如果你正在考虑搭建自己的 AI 知识库、智能客服或自动化助手，Dify 是一个值得尝试的开源方案！
+需要我帮你演示如何用 Dify 搭建一个文档问答机器人吗？😊</t>
         </is>
       </c>
     </row>

--- a/dify_chat_tester_template.xlsx
+++ b/dify_chat_tester_template.xlsx
@@ -27,7 +27,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>文档名称</t>
+  </si>
   <si>
     <t>问题</t>
   </si>
@@ -57,7 +60,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,13 +72,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -534,148 +530,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1030,45 +1026,49 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="50" customWidth="1"/>
+    <col min="1" max="1" width="50.9519230769231" customWidth="1"/>
+    <col min="2" max="2" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="2" spans="1:2">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="3" spans="1:2">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="4" spans="1:2">
+      <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="5" spans="1:2">
+      <c r="B5" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="B6" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
